--- a/biology/Botanique/Forêt_tempérée/Forêt_tempérée.xlsx
+++ b/biology/Botanique/Forêt_tempérée/Forêt_tempérée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_temp%C3%A9r%C3%A9e</t>
+          <t>Forêt_tempérée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une forêt tempérée est une forêt située dans les zones au climat tempéré doux, dans l'hémisphère nord le plus souvent (car il y a plus de surfaces émergées et enforestées dans cette région du monde) (Amérique du Nord, Europe, Chine et Japon) ou dans l'hémisphère sud.
 Elles contiennent des feuillus et quelques conifères.
-Les forêts tempérées se désignent principalement en deux biomes distincts, liés au climat, mais aussi aux sols[1] :
+Les forêts tempérées se désignent principalement en deux biomes distincts, liés au climat, mais aussi aux sols :
 les forêts tempérées sempervirentes, dont forêts de conifères tempérées, dans les zones aux étés chauds et hivers frais ;
 et les forêts tempérées d'arbres à feuilles caduques, dans les zones où les précipitations sont relativement régulières durant l'année.
 Forêt tempérée décidue
@@ -506,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_temp%C3%A9r%C3%A9e</t>
+          <t>Forêt_tempérée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,7 +536,9 @@
           <t>Degré de naturalité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces zones ayant été — en raison de la douceur du climat et de la fréquente richesse agronomique des sols — particulièrement habitées par l'Homme depuis la préhistoire, ce sont celles où les forêts primaires ou à haut degré de naturalité ont le plus régressé ou disparu. Elles sont souvent particulièrement fragmentées par les routes, les zones agricoles et diverses infrastructures (ligne haute tension, pipe-lines, autoroutes, canaux, TGV, etc.) Il est fréquent que des forêts cultivées (peupleraies, enrésinements) aient remplacé la forêt naturelle et sa faune. Les grands carnivores (loup, ours, glouton, lynx, cougar) y sont devenus très rares.
 Les forêts alluviales humides ou pluvieuses y ont souvent été détruites ou fortement drainées. Les castors (uniquement dans l'hémisphère nord) y entretenaient d'importantes zones humides grâce à leurs barrages) ont également fortement régressé, mais recolonisent lentement certains massifs.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_temp%C3%A9r%C3%A9e</t>
+          <t>Forêt_tempérée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,9 +570,11 @@
           <t>Besoin en eau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le besoin en eau des plantes liée à la transpiration végétale représente 50 à 80 % de l'eau issue des précipitations. Pour une forêt tempérée, ce besoin correspond à 30 tonnes d'eau par hectare chaque jour (soit une lame d'eau de 3 mm/ha). Pour un besoin de 200 jours/an avec des feuilles (absence de flux de sève en automne et en hiver), cela correspond à 600 mm de pluie par an. Or, les météorologues relèvent en moyenne une pluviométrie de 500 à 1500 mm/an selon les régions françaises marquées par un excès ou un déficit pluviométrique par rapport aux besoins en eau des forêts. Ce déficit dans le sud méditerranéen est un facteur, avec la température, qui explique le développement de formations xérophytiques (maigre couverture végétale, forêts, terres boisées et broussailles méditerranéennes)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le besoin en eau des plantes liée à la transpiration végétale représente 50 à 80 % de l'eau issue des précipitations. Pour une forêt tempérée, ce besoin correspond à 30 tonnes d'eau par hectare chaque jour (soit une lame d'eau de 3 mm/ha). Pour un besoin de 200 jours/an avec des feuilles (absence de flux de sève en automne et en hiver), cela correspond à 600 mm de pluie par an. Or, les météorologues relèvent en moyenne une pluviométrie de 500 à 1500 mm/an selon les régions françaises marquées par un excès ou un déficit pluviométrique par rapport aux besoins en eau des forêts. Ce déficit dans le sud méditerranéen est un facteur, avec la température, qui explique le développement de formations xérophytiques (maigre couverture végétale, forêts, terres boisées et broussailles méditerranéennes).
 </t>
         </is>
       </c>
